--- a/Collections/EURO/Germany/#EURO#Germany#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639AFFEE-6DBF-4CD2-B2E4-21C88CB8F82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDB57D6-7E27-4C5E-AA22-1D7FC9968B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1394,9 +1394,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -3108,6 +3105,9 @@
   </si>
   <si>
     <t>Subtype_3</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -3397,6 +3397,10 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3433,10 +3437,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -3444,6 +3444,15 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="134">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4492,15 +4501,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -4532,9 +4532,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="133"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="132" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="131"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4805,11 +4805,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T25" sqref="T25"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4824,70 +4824,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -4896,26 +4896,26 @@
         <v>2002</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -4926,7 +4926,7 @@
       <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="35">
+      <c r="M3" s="23">
         <v>1</v>
       </c>
       <c r="N3" s="1">
@@ -4943,26 +4943,26 @@
         <v>2003</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>0</v>
@@ -4990,26 +4990,26 @@
         <v>2004</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -5036,26 +5036,26 @@
         <v>2005</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -5082,26 +5082,26 @@
         <v>2006</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>0</v>
@@ -5128,26 +5128,26 @@
         <v>2007</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -5174,26 +5174,26 @@
         <v>2008</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -5220,26 +5220,26 @@
         <v>2009</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -5266,26 +5266,26 @@
         <v>2010</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -5299,7 +5299,7 @@
       <c r="M11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="35">
+      <c r="N11" s="23">
         <v>1</v>
       </c>
       <c r="O11" s="17" t="str">
@@ -5312,26 +5312,26 @@
         <v>2011</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -5358,26 +5358,26 @@
         <v>2012</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -5404,26 +5404,26 @@
         <v>2013</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -5450,26 +5450,26 @@
         <v>2014</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -5496,26 +5496,26 @@
         <v>2015</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -5542,26 +5542,26 @@
         <v>2016</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -5588,26 +5588,26 @@
         <v>2017</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -5634,26 +5634,26 @@
         <v>2018</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -5680,26 +5680,26 @@
         <v>2019</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -5726,26 +5726,26 @@
         <v>2020</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="H21" s="10" t="s">
-        <v>449</v>
-      </c>
       <c r="I21" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -5772,26 +5772,26 @@
         <v>2021</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -5822,26 +5822,26 @@
         <v>2022</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -5872,26 +5872,26 @@
         <v>2023</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -6017,7 +6017,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="J3:J20 K3:M3 N3:N20">
-    <cfRule type="containsText" dxfId="130" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -6032,7 +6032,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K6 K8:K20">
-    <cfRule type="containsText" dxfId="129" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -6047,7 +6047,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="128" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -6062,7 +6062,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="127" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -6077,7 +6077,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L20">
-    <cfRule type="containsText" dxfId="126" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -6092,7 +6092,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L6">
-    <cfRule type="containsText" dxfId="125" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -6107,7 +6107,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="124" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -6122,7 +6122,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsText" dxfId="123" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -6137,7 +6137,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M20">
-    <cfRule type="containsText" dxfId="122" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -6152,7 +6152,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:M6">
-    <cfRule type="containsText" dxfId="121" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -6167,7 +6167,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="containsText" dxfId="120" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -6182,7 +6182,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="containsText" dxfId="119" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -6197,7 +6197,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N24 J21:J24">
-    <cfRule type="containsText" dxfId="118" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6212,7 +6212,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:K24">
-    <cfRule type="containsText" dxfId="117" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6227,7 +6227,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:L24">
-    <cfRule type="containsText" dxfId="116" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -6242,7 +6242,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21:M24">
-    <cfRule type="containsText" dxfId="115" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6270,7 +6270,7 @@
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q27" sqref="Q27:T45"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6285,70 +6285,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -6357,37 +6357,37 @@
         <v>2002</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3" s="23">
         <v>1</v>
       </c>
-      <c r="L3" s="35">
-        <v>0</v>
-      </c>
-      <c r="M3" s="35">
+      <c r="L3" s="23">
+        <v>0</v>
+      </c>
+      <c r="M3" s="23">
         <v>0</v>
       </c>
       <c r="N3" s="1">
@@ -6404,37 +6404,37 @@
         <v>2003</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
       </c>
-      <c r="K4" s="35">
-        <v>0</v>
-      </c>
-      <c r="L4" s="35">
+      <c r="K4" s="23">
+        <v>0</v>
+      </c>
+      <c r="L4" s="23">
         <v>1</v>
       </c>
-      <c r="M4" s="35">
+      <c r="M4" s="23">
         <v>0</v>
       </c>
       <c r="N4" s="1">
@@ -6451,37 +6451,37 @@
         <v>2004</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
       </c>
-      <c r="K5" s="35">
-        <v>0</v>
-      </c>
-      <c r="L5" s="35">
-        <v>0</v>
-      </c>
-      <c r="M5" s="35">
+      <c r="K5" s="23">
+        <v>0</v>
+      </c>
+      <c r="L5" s="23">
+        <v>0</v>
+      </c>
+      <c r="M5" s="23">
         <v>0</v>
       </c>
       <c r="N5" s="1">
@@ -6497,37 +6497,37 @@
         <v>2005</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="35">
-        <v>0</v>
-      </c>
-      <c r="L6" s="35">
-        <v>0</v>
-      </c>
-      <c r="M6" s="35">
+      <c r="K6" s="23">
+        <v>0</v>
+      </c>
+      <c r="L6" s="23">
+        <v>0</v>
+      </c>
+      <c r="M6" s="23">
         <v>0</v>
       </c>
       <c r="N6" s="1">
@@ -6543,26 +6543,26 @@
         <v>2006</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -6589,26 +6589,26 @@
         <v>2007</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -6635,26 +6635,26 @@
         <v>2008</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -6681,26 +6681,26 @@
         <v>2009</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -6727,26 +6727,26 @@
         <v>2010</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -6773,26 +6773,26 @@
         <v>2011</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -6819,26 +6819,26 @@
         <v>2012</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -6865,26 +6865,26 @@
         <v>2013</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -6911,26 +6911,26 @@
         <v>2014</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -6957,26 +6957,26 @@
         <v>2015</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -7003,26 +7003,26 @@
         <v>2016</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -7049,26 +7049,26 @@
         <v>2017</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -7095,26 +7095,26 @@
         <v>2018</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -7141,26 +7141,26 @@
         <v>2019</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -7187,26 +7187,26 @@
         <v>2020</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="H21" s="10" t="s">
-        <v>453</v>
-      </c>
       <c r="I21" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -7233,26 +7233,26 @@
         <v>2021</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -7279,26 +7279,26 @@
         <v>2022</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -7325,26 +7325,26 @@
         <v>2023</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -7437,7 +7437,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="J3:N20">
-    <cfRule type="containsText" dxfId="114" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -7452,7 +7452,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:N24">
-    <cfRule type="containsText" dxfId="113" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -7480,7 +7480,7 @@
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S23" sqref="S23:W43"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7495,70 +7495,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -7567,26 +7567,26 @@
         <v>2002</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -7594,13 +7594,13 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="23">
         <v>1</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
       </c>
-      <c r="N3" s="35">
+      <c r="N3" s="23">
         <v>1</v>
       </c>
       <c r="O3" s="17" t="str">
@@ -7614,26 +7614,26 @@
         <v>2003</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>0</v>
@@ -7661,26 +7661,26 @@
         <v>2004</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -7688,7 +7688,7 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="23">
         <v>1</v>
       </c>
       <c r="M5" s="1">
@@ -7707,26 +7707,26 @@
         <v>2005</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -7740,7 +7740,7 @@
       <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="35">
+      <c r="N6" s="23">
         <v>1</v>
       </c>
       <c r="O6" s="17" t="str">
@@ -7753,26 +7753,26 @@
         <v>2006</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -7799,26 +7799,26 @@
         <v>2007</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -7845,28 +7845,28 @@
         <v>2008</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="J9" s="35">
+        <v>194</v>
+      </c>
+      <c r="J9" s="23">
         <v>1</v>
       </c>
       <c r="K9" s="1">
@@ -7891,26 +7891,26 @@
         <v>2009</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -7937,26 +7937,26 @@
         <v>2010</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -7983,26 +7983,26 @@
         <v>2011</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -8029,26 +8029,26 @@
         <v>2012</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -8062,7 +8062,7 @@
       <c r="M13" s="1">
         <v>0</v>
       </c>
-      <c r="N13" s="35">
+      <c r="N13" s="23">
         <v>1</v>
       </c>
       <c r="O13" s="17" t="str">
@@ -8075,26 +8075,26 @@
         <v>2013</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -8121,26 +8121,26 @@
         <v>2014</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -8167,26 +8167,26 @@
         <v>2015</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -8213,26 +8213,26 @@
         <v>2016</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -8259,26 +8259,26 @@
         <v>2017</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -8305,26 +8305,26 @@
         <v>2018</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -8351,26 +8351,26 @@
         <v>2019</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H20" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="I20" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -8397,26 +8397,26 @@
         <v>2020</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="H21" s="10" t="s">
-        <v>457</v>
-      </c>
       <c r="I21" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -8443,26 +8443,26 @@
         <v>2021</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -8489,26 +8489,26 @@
         <v>2022</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -8535,26 +8535,26 @@
         <v>2023</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -8643,7 +8643,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="J3:J20 K3:M3 N3:N20">
-    <cfRule type="containsText" dxfId="112" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -8658,7 +8658,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K20">
-    <cfRule type="containsText" dxfId="111" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -8673,7 +8673,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="110" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -8688,7 +8688,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L20">
-    <cfRule type="containsText" dxfId="109" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -8703,7 +8703,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="108" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -8718,7 +8718,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:M20">
-    <cfRule type="containsText" dxfId="107" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -8733,7 +8733,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="containsText" dxfId="106" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -8748,7 +8748,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N24 J21:J24">
-    <cfRule type="containsText" dxfId="105" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -8763,7 +8763,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:K24">
-    <cfRule type="containsText" dxfId="104" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -8778,7 +8778,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:L24">
-    <cfRule type="containsText" dxfId="103" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -8793,7 +8793,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21:M24">
-    <cfRule type="containsText" dxfId="102" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -8821,7 +8821,7 @@
       <pane xSplit="16" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3:M3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8836,74 +8836,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="K2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="P2" s="2"/>
     </row>
@@ -8912,37 +8912,37 @@
         <v>2002</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="K3" s="35">
+        <v>287</v>
+      </c>
+      <c r="K3" s="23">
         <v>1</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="23">
         <v>2</v>
       </c>
-      <c r="M3" s="35">
+      <c r="M3" s="23">
         <v>1</v>
       </c>
       <c r="N3" s="1">
@@ -8962,19 +8962,19 @@
         <v>2002</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -9011,29 +9011,29 @@
         <v>2003</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -9061,29 +9061,29 @@
         <v>2004</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>0</v>
@@ -9110,29 +9110,29 @@
         <v>2005</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>0</v>
@@ -9159,29 +9159,29 @@
         <v>2006</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>0</v>
@@ -9208,29 +9208,29 @@
         <v>2007</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>0</v>
@@ -9257,29 +9257,29 @@
         <v>2008</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>0</v>
@@ -9306,29 +9306,29 @@
         <v>2009</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>0</v>
@@ -9355,29 +9355,29 @@
         <v>2010</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>0</v>
@@ -9404,29 +9404,29 @@
         <v>2011</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>0</v>
@@ -9453,29 +9453,29 @@
         <v>2012</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>0</v>
@@ -9502,29 +9502,29 @@
         <v>2013</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>0</v>
@@ -9551,29 +9551,29 @@
         <v>2014</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>0</v>
@@ -9600,29 +9600,29 @@
         <v>2015</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>0</v>
@@ -9649,29 +9649,29 @@
         <v>2016</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>0</v>
@@ -9698,29 +9698,29 @@
         <v>2017</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -9747,29 +9747,29 @@
         <v>2018</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
@@ -9796,29 +9796,29 @@
         <v>2019</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -9845,29 +9845,29 @@
         <v>2020</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="I22" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="I22" s="10" t="s">
-        <v>461</v>
-      </c>
       <c r="J22" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
@@ -9894,29 +9894,29 @@
         <v>2021</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -9943,29 +9943,29 @@
         <v>2022</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -9992,29 +9992,29 @@
         <v>2023</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
@@ -10054,7 +10054,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="K3:K21 L5:N6 O5:O21 L3:O4">
-    <cfRule type="containsText" dxfId="101" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -10069,7 +10069,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:L21">
-    <cfRule type="containsText" dxfId="100" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -10084,7 +10084,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:L18">
-    <cfRule type="containsText" dxfId="99" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -10099,7 +10099,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:M21">
-    <cfRule type="containsText" dxfId="98" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -10114,7 +10114,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:M18">
-    <cfRule type="containsText" dxfId="97" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -10129,7 +10129,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19:N21">
-    <cfRule type="containsText" dxfId="96" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -10144,7 +10144,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:N18">
-    <cfRule type="containsText" dxfId="95" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -10159,7 +10159,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22:O25 K22:K25">
-    <cfRule type="containsText" dxfId="94" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -10174,7 +10174,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:L25">
-    <cfRule type="containsText" dxfId="93" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -10189,7 +10189,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22:M25">
-    <cfRule type="containsText" dxfId="92" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -10204,7 +10204,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:N25">
-    <cfRule type="containsText" dxfId="91" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -10232,7 +10232,7 @@
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J21" sqref="J3:N21"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10247,70 +10247,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -10319,42 +10319,42 @@
         <v>2002</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="J3" s="35">
+        <v>360</v>
+      </c>
+      <c r="J3" s="23">
         <v>1</v>
       </c>
-      <c r="K3" s="35">
-        <v>0</v>
-      </c>
-      <c r="L3" s="35">
+      <c r="K3" s="23">
+        <v>0</v>
+      </c>
+      <c r="L3" s="23">
         <v>1</v>
       </c>
-      <c r="M3" s="35">
-        <v>0</v>
-      </c>
-      <c r="N3" s="35">
+      <c r="M3" s="23">
+        <v>0</v>
+      </c>
+      <c r="N3" s="23">
         <v>0</v>
       </c>
       <c r="O3" s="17" t="str">
@@ -10368,42 +10368,42 @@
         <v>2003</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="35">
-        <v>0</v>
-      </c>
-      <c r="K4" s="35">
-        <v>0</v>
-      </c>
-      <c r="L4" s="35">
-        <v>0</v>
-      </c>
-      <c r="M4" s="35">
+        <v>67</v>
+      </c>
+      <c r="J4" s="23">
+        <v>0</v>
+      </c>
+      <c r="K4" s="23">
+        <v>0</v>
+      </c>
+      <c r="L4" s="23">
+        <v>0</v>
+      </c>
+      <c r="M4" s="23">
         <v>1</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="N4" s="23" t="s">
         <v>0</v>
       </c>
       <c r="O4" s="17" t="str">
@@ -10417,42 +10417,42 @@
         <v>2004</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="35">
-        <v>0</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="23">
+        <v>0</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="23" t="s">
         <v>0</v>
       </c>
       <c r="O5" s="17" t="str">
@@ -10465,42 +10465,42 @@
         <v>2005</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="J6" s="35">
-        <v>0</v>
-      </c>
-      <c r="K6" s="35">
-        <v>0</v>
-      </c>
-      <c r="L6" s="35">
-        <v>0</v>
-      </c>
-      <c r="M6" s="35">
-        <v>0</v>
-      </c>
-      <c r="N6" s="35">
+        <v>311</v>
+      </c>
+      <c r="J6" s="23">
+        <v>0</v>
+      </c>
+      <c r="K6" s="23">
+        <v>0</v>
+      </c>
+      <c r="L6" s="23">
+        <v>0</v>
+      </c>
+      <c r="M6" s="23">
+        <v>0</v>
+      </c>
+      <c r="N6" s="23">
         <v>0</v>
       </c>
       <c r="O6" s="17" t="str">
@@ -10513,42 +10513,42 @@
         <v>2006</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="J7" s="35">
-        <v>0</v>
-      </c>
-      <c r="K7" s="35">
-        <v>0</v>
-      </c>
-      <c r="L7" s="35">
-        <v>0</v>
-      </c>
-      <c r="M7" s="35">
-        <v>0</v>
-      </c>
-      <c r="N7" s="35">
+        <v>312</v>
+      </c>
+      <c r="J7" s="23">
+        <v>0</v>
+      </c>
+      <c r="K7" s="23">
+        <v>0</v>
+      </c>
+      <c r="L7" s="23">
+        <v>0</v>
+      </c>
+      <c r="M7" s="23">
+        <v>0</v>
+      </c>
+      <c r="N7" s="23">
         <v>0</v>
       </c>
       <c r="O7" s="17" t="str">
@@ -10561,42 +10561,42 @@
         <v>2007</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="J8" s="35">
-        <v>0</v>
-      </c>
-      <c r="K8" s="35">
-        <v>0</v>
-      </c>
-      <c r="L8" s="35">
+        <v>361</v>
+      </c>
+      <c r="J8" s="23">
+        <v>0</v>
+      </c>
+      <c r="K8" s="23">
+        <v>0</v>
+      </c>
+      <c r="L8" s="23">
         <v>1</v>
       </c>
-      <c r="M8" s="35">
-        <v>0</v>
-      </c>
-      <c r="N8" s="35">
+      <c r="M8" s="23">
+        <v>0</v>
+      </c>
+      <c r="N8" s="23">
         <v>0</v>
       </c>
       <c r="O8" s="17" t="str">
@@ -10609,13 +10609,13 @@
         <v>2007</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>0</v>
@@ -10624,7 +10624,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>0</v>
@@ -10632,19 +10632,19 @@
       <c r="I9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="35">
-        <v>0</v>
-      </c>
-      <c r="M9" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" s="35" t="s">
+      <c r="J9" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="23">
+        <v>0</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="23" t="s">
         <v>0</v>
       </c>
       <c r="O9" s="17"/>
@@ -10654,42 +10654,42 @@
         <v>2008</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="J10" s="35">
-        <v>0</v>
-      </c>
-      <c r="K10" s="35">
-        <v>0</v>
-      </c>
-      <c r="L10" s="35">
-        <v>0</v>
-      </c>
-      <c r="M10" s="35">
-        <v>0</v>
-      </c>
-      <c r="N10" s="35">
+        <v>362</v>
+      </c>
+      <c r="J10" s="23">
+        <v>0</v>
+      </c>
+      <c r="K10" s="23">
+        <v>0</v>
+      </c>
+      <c r="L10" s="23">
+        <v>0</v>
+      </c>
+      <c r="M10" s="23">
+        <v>0</v>
+      </c>
+      <c r="N10" s="23">
         <v>0</v>
       </c>
       <c r="O10" s="17" t="str">
@@ -10702,42 +10702,42 @@
         <v>2009</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="J11" s="35">
-        <v>0</v>
-      </c>
-      <c r="K11" s="35">
-        <v>0</v>
-      </c>
-      <c r="L11" s="35">
-        <v>0</v>
-      </c>
-      <c r="M11" s="35">
-        <v>0</v>
-      </c>
-      <c r="N11" s="35">
+        <v>315</v>
+      </c>
+      <c r="J11" s="23">
+        <v>0</v>
+      </c>
+      <c r="K11" s="23">
+        <v>0</v>
+      </c>
+      <c r="L11" s="23">
+        <v>0</v>
+      </c>
+      <c r="M11" s="23">
+        <v>0</v>
+      </c>
+      <c r="N11" s="23">
         <v>0</v>
       </c>
       <c r="O11" s="17" t="str">
@@ -10750,42 +10750,42 @@
         <v>2010</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="J12" s="35">
-        <v>0</v>
-      </c>
-      <c r="K12" s="35">
-        <v>0</v>
-      </c>
-      <c r="L12" s="35">
-        <v>0</v>
-      </c>
-      <c r="M12" s="35">
-        <v>0</v>
-      </c>
-      <c r="N12" s="35">
+        <v>316</v>
+      </c>
+      <c r="J12" s="23">
+        <v>0</v>
+      </c>
+      <c r="K12" s="23">
+        <v>0</v>
+      </c>
+      <c r="L12" s="23">
+        <v>0</v>
+      </c>
+      <c r="M12" s="23">
+        <v>0</v>
+      </c>
+      <c r="N12" s="23">
         <v>0</v>
       </c>
       <c r="O12" s="17" t="str">
@@ -10798,42 +10798,42 @@
         <v>2011</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="J13" s="35">
-        <v>0</v>
-      </c>
-      <c r="K13" s="35">
-        <v>0</v>
-      </c>
-      <c r="L13" s="35">
-        <v>0</v>
-      </c>
-      <c r="M13" s="35">
-        <v>0</v>
-      </c>
-      <c r="N13" s="35">
+        <v>317</v>
+      </c>
+      <c r="J13" s="23">
+        <v>0</v>
+      </c>
+      <c r="K13" s="23">
+        <v>0</v>
+      </c>
+      <c r="L13" s="23">
+        <v>0</v>
+      </c>
+      <c r="M13" s="23">
+        <v>0</v>
+      </c>
+      <c r="N13" s="23">
         <v>0</v>
       </c>
       <c r="O13" s="17" t="str">
@@ -10846,42 +10846,42 @@
         <v>2012</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="J14" s="35">
-        <v>0</v>
-      </c>
-      <c r="K14" s="35">
-        <v>0</v>
-      </c>
-      <c r="L14" s="35">
-        <v>0</v>
-      </c>
-      <c r="M14" s="35">
-        <v>0</v>
-      </c>
-      <c r="N14" s="35">
+        <v>318</v>
+      </c>
+      <c r="J14" s="23">
+        <v>0</v>
+      </c>
+      <c r="K14" s="23">
+        <v>0</v>
+      </c>
+      <c r="L14" s="23">
+        <v>0</v>
+      </c>
+      <c r="M14" s="23">
+        <v>0</v>
+      </c>
+      <c r="N14" s="23">
         <v>0</v>
       </c>
       <c r="O14" s="17" t="str">
@@ -10894,42 +10894,42 @@
         <v>2013</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="J15" s="35">
-        <v>0</v>
-      </c>
-      <c r="K15" s="35">
-        <v>0</v>
-      </c>
-      <c r="L15" s="35">
-        <v>0</v>
-      </c>
-      <c r="M15" s="35">
-        <v>0</v>
-      </c>
-      <c r="N15" s="35">
+        <v>319</v>
+      </c>
+      <c r="J15" s="23">
+        <v>0</v>
+      </c>
+      <c r="K15" s="23">
+        <v>0</v>
+      </c>
+      <c r="L15" s="23">
+        <v>0</v>
+      </c>
+      <c r="M15" s="23">
+        <v>0</v>
+      </c>
+      <c r="N15" s="23">
         <v>0</v>
       </c>
       <c r="O15" s="17" t="str">
@@ -10942,42 +10942,42 @@
         <v>2014</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="J16" s="35">
-        <v>0</v>
-      </c>
-      <c r="K16" s="35">
-        <v>0</v>
-      </c>
-      <c r="L16" s="35">
-        <v>0</v>
-      </c>
-      <c r="M16" s="35">
-        <v>0</v>
-      </c>
-      <c r="N16" s="35">
+        <v>320</v>
+      </c>
+      <c r="J16" s="23">
+        <v>0</v>
+      </c>
+      <c r="K16" s="23">
+        <v>0</v>
+      </c>
+      <c r="L16" s="23">
+        <v>0</v>
+      </c>
+      <c r="M16" s="23">
+        <v>0</v>
+      </c>
+      <c r="N16" s="23">
         <v>0</v>
       </c>
       <c r="O16" s="17" t="str">
@@ -10990,42 +10990,42 @@
         <v>2015</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="J17" s="35">
-        <v>0</v>
-      </c>
-      <c r="K17" s="35">
-        <v>0</v>
-      </c>
-      <c r="L17" s="35">
-        <v>0</v>
-      </c>
-      <c r="M17" s="35">
-        <v>0</v>
-      </c>
-      <c r="N17" s="35">
+        <v>321</v>
+      </c>
+      <c r="J17" s="23">
+        <v>0</v>
+      </c>
+      <c r="K17" s="23">
+        <v>0</v>
+      </c>
+      <c r="L17" s="23">
+        <v>0</v>
+      </c>
+      <c r="M17" s="23">
+        <v>0</v>
+      </c>
+      <c r="N17" s="23">
         <v>0</v>
       </c>
       <c r="O17" s="17" t="str">
@@ -11038,42 +11038,42 @@
         <v>2016</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="J18" s="35">
-        <v>0</v>
-      </c>
-      <c r="K18" s="35">
+        <v>322</v>
+      </c>
+      <c r="J18" s="23">
+        <v>0</v>
+      </c>
+      <c r="K18" s="23">
         <v>1</v>
       </c>
-      <c r="L18" s="35">
-        <v>0</v>
-      </c>
-      <c r="M18" s="35">
-        <v>0</v>
-      </c>
-      <c r="N18" s="35">
+      <c r="L18" s="23">
+        <v>0</v>
+      </c>
+      <c r="M18" s="23">
+        <v>0</v>
+      </c>
+      <c r="N18" s="23">
         <v>0</v>
       </c>
       <c r="O18" s="17" t="str">
@@ -11086,42 +11086,42 @@
         <v>2017</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="J19" s="35">
-        <v>0</v>
-      </c>
-      <c r="K19" s="35">
-        <v>0</v>
-      </c>
-      <c r="L19" s="35">
-        <v>0</v>
-      </c>
-      <c r="M19" s="35">
-        <v>0</v>
-      </c>
-      <c r="N19" s="35">
+        <v>322</v>
+      </c>
+      <c r="J19" s="23">
+        <v>0</v>
+      </c>
+      <c r="K19" s="23">
+        <v>0</v>
+      </c>
+      <c r="L19" s="23">
+        <v>0</v>
+      </c>
+      <c r="M19" s="23">
+        <v>0</v>
+      </c>
+      <c r="N19" s="23">
         <v>0</v>
       </c>
       <c r="O19" s="17" t="str">
@@ -11134,42 +11134,42 @@
         <v>2018</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="J20" s="35">
-        <v>0</v>
-      </c>
-      <c r="K20" s="35">
-        <v>0</v>
-      </c>
-      <c r="L20" s="35">
-        <v>0</v>
-      </c>
-      <c r="M20" s="35">
-        <v>0</v>
-      </c>
-      <c r="N20" s="35">
+        <v>324</v>
+      </c>
+      <c r="J20" s="23">
+        <v>0</v>
+      </c>
+      <c r="K20" s="23">
+        <v>0</v>
+      </c>
+      <c r="L20" s="23">
+        <v>0</v>
+      </c>
+      <c r="M20" s="23">
+        <v>0</v>
+      </c>
+      <c r="N20" s="23">
         <v>0</v>
       </c>
       <c r="O20" s="17" t="str">
@@ -11182,42 +11182,42 @@
         <v>2019</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="J21" s="35">
-        <v>0</v>
-      </c>
-      <c r="K21" s="35">
-        <v>0</v>
-      </c>
-      <c r="L21" s="35">
-        <v>0</v>
-      </c>
-      <c r="M21" s="35">
-        <v>0</v>
-      </c>
-      <c r="N21" s="35">
+        <v>363</v>
+      </c>
+      <c r="J21" s="23">
+        <v>0</v>
+      </c>
+      <c r="K21" s="23">
+        <v>0</v>
+      </c>
+      <c r="L21" s="23">
+        <v>0</v>
+      </c>
+      <c r="M21" s="23">
+        <v>0</v>
+      </c>
+      <c r="N21" s="23">
         <v>0</v>
       </c>
       <c r="O21" s="17" t="str">
@@ -11230,28 +11230,28 @@
         <v>2020</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E22" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>465</v>
-      </c>
       <c r="I22" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -11278,28 +11278,28 @@
         <v>2021</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -11326,28 +11326,28 @@
         <v>2022</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -11376,28 +11376,28 @@
         <v>2023</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
@@ -11505,7 +11505,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="J3:K8 L3:M4 N3:N8 N10:N21 J10:K21">
-    <cfRule type="containsText" dxfId="90" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -11520,7 +11520,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L8 L10:L21">
-    <cfRule type="containsText" dxfId="89" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -11535,7 +11535,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="containsText" dxfId="88" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -11550,7 +11550,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M8 M10:M21">
-    <cfRule type="containsText" dxfId="87" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -11565,7 +11565,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="containsText" dxfId="86" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -11580,7 +11580,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="containsText" dxfId="85" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -11595,7 +11595,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="containsText" dxfId="84" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -11610,7 +11610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="containsText" dxfId="83" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -11625,7 +11625,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="containsText" dxfId="82" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -11640,7 +11640,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="containsText" dxfId="81" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -11655,7 +11655,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:K25 N22:N25">
-    <cfRule type="containsText" dxfId="80" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -11670,7 +11670,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:L25">
-    <cfRule type="containsText" dxfId="79" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -11685,7 +11685,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22:M25">
-    <cfRule type="containsText" dxfId="78" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -11713,7 +11713,7 @@
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3:N3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11728,70 +11728,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -11800,42 +11800,42 @@
         <v>2002</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="J3" s="35">
+        <v>376</v>
+      </c>
+      <c r="J3" s="23">
         <v>1</v>
       </c>
-      <c r="K3" s="35">
-        <v>0</v>
-      </c>
-      <c r="L3" s="35">
-        <v>0</v>
-      </c>
-      <c r="M3" s="35">
-        <v>0</v>
-      </c>
-      <c r="N3" s="35">
+      <c r="K3" s="23">
+        <v>0</v>
+      </c>
+      <c r="L3" s="23">
+        <v>0</v>
+      </c>
+      <c r="M3" s="23">
+        <v>0</v>
+      </c>
+      <c r="N3" s="23">
         <v>2</v>
       </c>
       <c r="O3" s="17" t="str">
@@ -11849,28 +11849,28 @@
         <v>2003</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>0</v>
@@ -11898,28 +11898,28 @@
         <v>2004</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -11946,28 +11946,28 @@
         <v>2005</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>0</v>
@@ -11994,28 +11994,28 @@
         <v>2006</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>0</v>
@@ -12042,28 +12042,28 @@
         <v>2007</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>0</v>
@@ -12090,28 +12090,28 @@
         <v>2008</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>0</v>
@@ -12138,28 +12138,28 @@
         <v>2009</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>0</v>
@@ -12186,28 +12186,28 @@
         <v>2010</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>0</v>
@@ -12234,28 +12234,28 @@
         <v>2011</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>0</v>
@@ -12282,28 +12282,28 @@
         <v>2012</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>0</v>
@@ -12330,28 +12330,28 @@
         <v>2013</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>0</v>
@@ -12378,28 +12378,28 @@
         <v>2014</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>0</v>
@@ -12426,28 +12426,28 @@
         <v>2015</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>0</v>
@@ -12474,28 +12474,28 @@
         <v>2016</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>0</v>
@@ -12522,28 +12522,28 @@
         <v>2017</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>0</v>
@@ -12570,28 +12570,28 @@
         <v>2018</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>0</v>
@@ -12618,28 +12618,28 @@
         <v>2019</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E20" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>569</v>
       </c>
-      <c r="F20" s="18" t="s">
-        <v>570</v>
-      </c>
       <c r="G20" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>0</v>
@@ -12666,28 +12666,28 @@
         <v>2020</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E21" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>572</v>
-      </c>
       <c r="G21" s="18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>0</v>
@@ -12714,28 +12714,28 @@
         <v>2021</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>0</v>
@@ -12762,28 +12762,28 @@
         <v>2022</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -12810,28 +12810,28 @@
         <v>2023</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -12854,7 +12854,7 @@
       </c>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AA26" s="34"/>
+      <c r="AA26" s="22"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AA27" s="3"/>
@@ -12872,7 +12872,7 @@
       <c r="AA31" s="3"/>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AA32" s="34"/>
+      <c r="AA32" s="22"/>
     </row>
     <row r="33" spans="27:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AA33" s="3"/>
@@ -12890,7 +12890,7 @@
       <c r="AA37" s="3"/>
     </row>
     <row r="38" spans="27:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AA38" s="34"/>
+      <c r="AA38" s="22"/>
     </row>
     <row r="39" spans="27:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AA39" s="3"/>
@@ -12908,7 +12908,7 @@
       <c r="AA43" s="3"/>
     </row>
     <row r="44" spans="27:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AA44" s="34"/>
+      <c r="AA44" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -12920,7 +12920,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="J3:J20 K3:K4 L3:M3 N3:N20">
-    <cfRule type="containsText" dxfId="77" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -12935,7 +12935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K20">
-    <cfRule type="containsText" dxfId="76" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -12950,7 +12950,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="containsText" dxfId="75" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -12965,7 +12965,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="74" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -12980,7 +12980,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L20">
-    <cfRule type="containsText" dxfId="73" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -12995,7 +12995,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="containsText" dxfId="72" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -13010,7 +13010,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="containsText" dxfId="71" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -13025,7 +13025,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M20">
-    <cfRule type="containsText" dxfId="70" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -13040,7 +13040,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N22 J21:J22">
-    <cfRule type="containsText" dxfId="69" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -13055,7 +13055,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:K22">
-    <cfRule type="containsText" dxfId="68" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -13070,7 +13070,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:L22">
-    <cfRule type="containsText" dxfId="67" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -13085,7 +13085,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21:M22">
-    <cfRule type="containsText" dxfId="66" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -13100,7 +13100,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:J24 L23:L24 N23:N24">
-    <cfRule type="containsText" dxfId="65" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -13115,7 +13115,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:K24 M23:M24">
-    <cfRule type="containsText" dxfId="64" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -13143,7 +13143,7 @@
       <pane xSplit="16" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3:M3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13158,74 +13158,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="K2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="P2" s="2"/>
     </row>
@@ -13234,37 +13234,37 @@
         <v>2002</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="K3" s="35">
+        <v>387</v>
+      </c>
+      <c r="K3" s="23">
         <v>2</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="23">
         <v>1</v>
       </c>
-      <c r="M3" s="35">
+      <c r="M3" s="23">
         <v>1</v>
       </c>
       <c r="N3" s="1">
@@ -13283,17 +13283,17 @@
         <v>2002</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C4" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>442</v>
-      </c>
       <c r="F4" s="19" t="s">
         <v>0</v>
       </c>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I4" s="19" t="s">
         <v>0</v>
@@ -13334,29 +13334,29 @@
         <v>2003</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -13383,29 +13383,29 @@
         <v>2004</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -13432,29 +13432,29 @@
         <v>2005</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>0</v>
@@ -13481,29 +13481,29 @@
         <v>2006</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>0</v>
@@ -13530,29 +13530,29 @@
         <v>2007</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>0</v>
@@ -13579,29 +13579,29 @@
         <v>2008</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>0</v>
@@ -13628,29 +13628,29 @@
         <v>2009</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>0</v>
@@ -13677,29 +13677,29 @@
         <v>2010</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>0</v>
@@ -13726,29 +13726,29 @@
         <v>2011</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>0</v>
@@ -13775,29 +13775,29 @@
         <v>2012</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>0</v>
@@ -13824,29 +13824,29 @@
         <v>2013</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>0</v>
@@ -13873,29 +13873,29 @@
         <v>2014</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>0</v>
@@ -13922,29 +13922,29 @@
         <v>2015</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>0</v>
@@ -13971,29 +13971,29 @@
         <v>2016</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>0</v>
@@ -14020,29 +14020,29 @@
         <v>2017</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>0</v>
@@ -14069,29 +14069,29 @@
         <v>2018</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>0</v>
@@ -14118,29 +14118,29 @@
         <v>2019</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="G21" s="18" t="s">
         <v>569</v>
       </c>
-      <c r="G21" s="18" t="s">
-        <v>570</v>
-      </c>
       <c r="H21" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>0</v>
@@ -14167,29 +14167,29 @@
         <v>2020</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="G22" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="G22" s="18" t="s">
-        <v>572</v>
-      </c>
       <c r="H22" s="18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>0</v>
@@ -14216,29 +14216,29 @@
         <v>2021</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>0</v>
@@ -14265,29 +14265,29 @@
         <v>2022</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>0</v>
@@ -14314,29 +14314,29 @@
         <v>2023</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>0</v>
@@ -14357,7 +14357,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AB25" s="34"/>
+      <c r="AB25" s="22"/>
     </row>
     <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AB26" s="3"/>
@@ -14375,7 +14375,7 @@
       <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AB31" s="34"/>
+      <c r="AB31" s="22"/>
     </row>
     <row r="32" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AB32" s="3"/>
@@ -14393,7 +14393,7 @@
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="28:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AB37" s="34"/>
+      <c r="AB37" s="22"/>
     </row>
     <row r="38" spans="28:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AB38" s="3"/>
@@ -14411,7 +14411,7 @@
       <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="28:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AB43" s="34"/>
+      <c r="AB43" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -14422,7 +14422,7 @@
     <mergeCell ref="K1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="K3:O3 K5:K21 M4 O5:O21">
-    <cfRule type="containsText" dxfId="63" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -14437,7 +14437,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="containsText" dxfId="62" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -14452,7 +14452,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:L21">
-    <cfRule type="containsText" dxfId="61" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -14467,7 +14467,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="containsText" dxfId="60" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -14482,7 +14482,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="containsText" dxfId="59" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -14497,7 +14497,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="containsText" dxfId="58" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -14512,7 +14512,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:M21">
-    <cfRule type="containsText" dxfId="57" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -14527,7 +14527,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="containsText" dxfId="56" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -14542,7 +14542,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="containsText" dxfId="55" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -14557,7 +14557,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:N21">
-    <cfRule type="containsText" dxfId="54" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -14572,7 +14572,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="53" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -14587,7 +14587,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -14602,7 +14602,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="containsText" dxfId="51" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -14617,7 +14617,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="containsText" dxfId="50" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -14632,7 +14632,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22:O25 K22:K25">
-    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -14647,7 +14647,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:L25">
-    <cfRule type="containsText" dxfId="48" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -14662,7 +14662,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22:M25">
-    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -14677,7 +14677,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:N25">
-    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -14701,11 +14701,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14720,70 +14720,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -14792,28 +14792,28 @@
         <v>2002</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -14821,13 +14821,13 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="23">
         <v>1</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
       </c>
-      <c r="N3" s="35">
+      <c r="N3" s="23">
         <v>2</v>
       </c>
       <c r="O3" s="17" t="str">
@@ -14840,28 +14840,28 @@
         <v>2003</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -14888,28 +14888,28 @@
         <v>2004</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -14936,28 +14936,28 @@
         <v>2005</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>0</v>
@@ -14984,28 +14984,28 @@
         <v>2006</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>0</v>
@@ -15080,28 +15080,28 @@
         <v>2008</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -15176,28 +15176,28 @@
         <v>2010</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -15224,28 +15224,28 @@
         <v>2011</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -15256,7 +15256,7 @@
       <c r="L12" s="1">
         <v>0</v>
       </c>
-      <c r="M12" s="35">
+      <c r="M12" s="23">
         <v>1</v>
       </c>
       <c r="N12" s="1">
@@ -15368,28 +15368,28 @@
         <v>2014</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -15464,28 +15464,28 @@
         <v>2016</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -15512,28 +15512,28 @@
         <v>2017</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -15608,28 +15608,28 @@
         <v>2019</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -15656,28 +15656,28 @@
         <v>2020</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E21" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="H21" s="10" t="s">
-        <v>469</v>
-      </c>
       <c r="I21" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -15704,28 +15704,28 @@
         <v>2021</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -15752,28 +15752,28 @@
         <v>2022</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>0</v>
@@ -15801,28 +15801,28 @@
         <v>2023</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -15974,7 +15974,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="J3:J20 K3:K5 L3:M4 N3:N5">
-    <cfRule type="containsText" dxfId="45" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="94">
@@ -15989,7 +15989,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K12 K9 K15 K17:K18 K20">
-    <cfRule type="containsText" dxfId="44" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="92">
@@ -16004,7 +16004,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="containsText" dxfId="43" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="90">
@@ -16019,7 +16019,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="42" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="88">
@@ -16034,7 +16034,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="containsText" dxfId="41" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="86">
@@ -16049,7 +16049,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="containsText" dxfId="40" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="84">
@@ -16064,7 +16064,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="39" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="82">
@@ -16079,7 +16079,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="38" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -16094,7 +16094,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="containsText" dxfId="37" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="78">
@@ -16109,7 +16109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="containsText" dxfId="36" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="76">
@@ -16124,7 +16124,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L12 L9 L15 L17:L18 L20">
-    <cfRule type="containsText" dxfId="35" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="72">
@@ -16139,7 +16139,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="containsText" dxfId="34" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -16154,7 +16154,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsText" dxfId="33" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="68">
@@ -16169,7 +16169,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="containsText" dxfId="32" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="66">
@@ -16184,7 +16184,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="containsText" dxfId="31" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -16199,7 +16199,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="containsText" dxfId="30" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -16214,7 +16214,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="29" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -16229,7 +16229,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="containsText" dxfId="28" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
@@ -16244,7 +16244,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="containsText" dxfId="27" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -16259,7 +16259,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="containsText" dxfId="26" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="54">
@@ -16274,7 +16274,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="containsText" dxfId="25" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -16288,8 +16288,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M9 M11">
-    <cfRule type="containsText" dxfId="24" priority="49" operator="containsText" text="*-">
+  <conditionalFormatting sqref="M11 M9">
+    <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -16304,7 +16304,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="containsText" dxfId="23" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
@@ -16319,7 +16319,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="containsText" dxfId="22" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
@@ -16334,7 +16334,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="containsText" dxfId="21" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -16349,7 +16349,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="containsText" dxfId="20" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -16364,7 +16364,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="containsText" dxfId="19" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -16379,7 +16379,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17:M18 M15 M20">
-    <cfRule type="containsText" dxfId="18" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -16394,7 +16394,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -16409,7 +16409,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -16424,7 +16424,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -16439,7 +16439,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -16454,7 +16454,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N20">
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -16469,7 +16469,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -16484,7 +16484,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -16499,7 +16499,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -16514,7 +16514,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:J22 J24">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -16529,7 +16529,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:K22 K24">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -16544,7 +16544,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:L22 L24">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -16559,7 +16559,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21:M22 M24">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -16574,7 +16574,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N22 N24">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -16589,7 +16589,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -16604,7 +16604,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -16619,7 +16619,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -16634,7 +16634,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -16649,7 +16649,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -16689,13 +16689,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16703,10 +16703,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16714,10 +16714,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16725,10 +16725,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16736,10 +16736,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16747,10 +16747,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>436</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16758,10 +16758,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Germany/#EURO#Germany#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDB57D6-7E27-4C5E-AA22-1D7FC9968B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C1627D-A4E4-47C5-8EB4-C6FA04D2E742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -8817,11 +8817,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="16" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8946,7 +8946,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
@@ -10232,7 +10232,7 @@
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10346,13 +10346,13 @@
         <v>1</v>
       </c>
       <c r="K3" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="23">
         <v>1</v>
       </c>
       <c r="M3" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="23">
         <v>0</v>
@@ -11713,7 +11713,7 @@
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="23">
         <v>0</v>
@@ -14701,11 +14701,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14816,7 +14816,7 @@
         <v>428</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -16288,7 +16288,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11 M9">
+  <conditionalFormatting sqref="M9 M11">
     <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M9))))</formula>
     </cfRule>

--- a/Collections/EURO/Germany/#EURO#Germany#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C1627D-A4E4-47C5-8EB4-C6FA04D2E742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8BF41E-2C93-4CEA-9F3B-89A347CA0EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -4809,7 +4809,7 @@
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4918,7 +4918,7 @@
         <v>66</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -5196,7 +5196,7 @@
         <v>71</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -5242,13 +5242,13 @@
         <v>72</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5518,7 +5518,7 @@
         <v>78</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -5610,7 +5610,7 @@
         <v>80</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5656,7 +5656,7 @@
         <v>81</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -6266,11 +6266,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6438,7 +6438,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="23">
         <v>0</v>
@@ -6611,7 +6611,7 @@
         <v>122</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -6669,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -6841,7 +6841,7 @@
         <v>127</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -6979,7 +6979,7 @@
         <v>129</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         <v>131</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -7083,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="17" t="str">
         <f t="shared" si="0"/>
@@ -7117,7 +7117,7 @@
         <v>132</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -7480,7 +7480,7 @@
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8152,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
@@ -8244,7 +8244,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="1">
         <v>0</v>
@@ -8817,11 +8817,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="16" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8949,7 +8949,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="17" t="str">
         <f t="shared" ref="P3:P21" si="0">IF(OR(AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(M3&gt;1,M3&lt;&gt;"-"),AND(N3&gt;1,N3&lt;&gt;"-"),AND(O3&gt;1,O3&lt;&gt;"-")),"Can exchange","")</f>
@@ -9048,7 +9048,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="17" t="str">
         <f t="shared" si="0"/>
@@ -9723,7 +9723,7 @@
         <v>272</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1">
         <v>0</v>

--- a/Collections/EURO/Germany/#EURO#Germany#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8BF41E-2C93-4CEA-9F3B-89A347CA0EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F23F33-74F4-4C5A-8DEC-7E328506ABC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6560" yWindow="1200" windowWidth="28720" windowHeight="19550" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -4809,7 +4809,7 @@
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6266,11 +6266,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7480,7 +7480,7 @@
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="17" t="str">
         <f t="shared" si="0"/>
@@ -8152,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
@@ -13143,7 +13143,7 @@
       <pane xSplit="16" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13259,13 +13259,13 @@
         <v>387</v>
       </c>
       <c r="K3" s="23">
+        <v>3</v>
+      </c>
+      <c r="L3" s="23">
         <v>2</v>
       </c>
-      <c r="L3" s="23">
-        <v>1</v>
-      </c>
       <c r="M3" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
@@ -14701,11 +14701,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16288,7 +16288,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M9 M11">
+  <conditionalFormatting sqref="M11 M9">
     <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M9))))</formula>
     </cfRule>

--- a/Collections/EURO/Germany/#EURO#Germany#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F23F33-74F4-4C5A-8DEC-7E328506ABC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECD2670-A0AF-44E1-9741-8D8117DC6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="1200" windowWidth="28720" windowHeight="19550" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1€'!$B$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10cents'!$B$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1cent'!$B$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2€'!$B$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20cents'!$B$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2cents'!$B$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'50cents'!$B$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5cents'!$B$2:$I$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1386,7 +1396,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="575">
   <si>
     <t>-</t>
   </si>
@@ -1400,12 +1410,6 @@
     <t>Mintage</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>1cent</t>
   </si>
   <si>
@@ -3104,10 +3108,19 @@
     <t>33.800</t>
   </si>
   <si>
-    <t>Subtype_3</t>
-  </si>
-  <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_3#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Map_of_Europe</t>
   </si>
 </sst>
 </file>
@@ -3177,6 +3190,8 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -3340,7 +3355,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3400,6 +3415,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4809,85 +4827,84 @@
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="9" width="12.453125" style="3" customWidth="1"/>
-    <col min="10" max="14" width="3.81640625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="3" customWidth="1"/>
+    <col min="5" max="9" width="12.6328125" style="3" customWidth="1"/>
+    <col min="10" max="14" width="3.6328125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>573</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>570</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>571</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>572</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="J2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -4896,26 +4913,26 @@
         <v>2002</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -4943,26 +4960,26 @@
         <v>2003</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>0</v>
@@ -4990,26 +5007,26 @@
         <v>2004</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -5036,26 +5053,26 @@
         <v>2005</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -5082,26 +5099,26 @@
         <v>2006</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>0</v>
@@ -5128,26 +5145,26 @@
         <v>2007</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -5174,26 +5191,26 @@
         <v>2008</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -5220,26 +5237,26 @@
         <v>2009</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -5266,26 +5283,26 @@
         <v>2010</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -5312,26 +5329,26 @@
         <v>2011</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -5358,26 +5375,26 @@
         <v>2012</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -5404,26 +5421,26 @@
         <v>2013</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -5450,26 +5467,26 @@
         <v>2014</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -5496,26 +5513,26 @@
         <v>2015</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -5542,26 +5559,26 @@
         <v>2016</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -5588,26 +5605,26 @@
         <v>2017</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -5634,26 +5651,26 @@
         <v>2018</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -5680,26 +5697,26 @@
         <v>2019</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -5726,26 +5743,26 @@
         <v>2020</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>448</v>
-      </c>
       <c r="I21" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -5772,26 +5789,26 @@
         <v>2021</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -5822,26 +5839,26 @@
         <v>2022</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -5872,26 +5889,26 @@
         <v>2023</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -6008,9 +6025,9 @@
       <c r="W39" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:I2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:N1"/>
@@ -6270,85 +6287,84 @@
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="9" width="12.453125" style="3" customWidth="1"/>
-    <col min="10" max="14" width="3.81640625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="3" customWidth="1"/>
+    <col min="5" max="9" width="12.6328125" style="3" customWidth="1"/>
+    <col min="10" max="14" width="3.6328125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>573</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>570</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>571</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>572</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="J2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -6357,26 +6373,26 @@
         <v>2002</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -6404,26 +6420,26 @@
         <v>2003</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -6451,26 +6467,26 @@
         <v>2004</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -6497,26 +6513,26 @@
         <v>2005</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -6543,26 +6559,26 @@
         <v>2006</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -6589,26 +6605,26 @@
         <v>2007</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -6635,26 +6651,26 @@
         <v>2008</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -6681,26 +6697,26 @@
         <v>2009</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -6727,26 +6743,26 @@
         <v>2010</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -6773,26 +6789,26 @@
         <v>2011</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -6819,26 +6835,26 @@
         <v>2012</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -6865,26 +6881,26 @@
         <v>2013</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -6911,26 +6927,26 @@
         <v>2014</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -6957,26 +6973,26 @@
         <v>2015</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -7003,26 +7019,26 @@
         <v>2016</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -7049,26 +7065,26 @@
         <v>2017</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -7095,26 +7111,26 @@
         <v>2018</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -7141,26 +7157,26 @@
         <v>2019</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -7187,26 +7203,26 @@
         <v>2020</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>452</v>
-      </c>
       <c r="I21" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -7233,26 +7249,26 @@
         <v>2021</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -7279,26 +7295,26 @@
         <v>2022</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -7325,26 +7341,26 @@
         <v>2023</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -7428,9 +7444,9 @@
       <c r="U46" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:I2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:N1"/>
@@ -7480,85 +7496,84 @@
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="9" width="12.453125" style="3" customWidth="1"/>
-    <col min="10" max="14" width="3.81640625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="3" customWidth="1"/>
+    <col min="5" max="9" width="12.6328125" style="3" customWidth="1"/>
+    <col min="10" max="14" width="3.6328125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>573</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>570</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>571</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>572</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="J2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -7567,26 +7582,26 @@
         <v>2002</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -7614,26 +7629,26 @@
         <v>2003</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>0</v>
@@ -7661,26 +7676,26 @@
         <v>2004</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -7707,26 +7722,26 @@
         <v>2005</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -7753,26 +7768,26 @@
         <v>2006</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -7799,26 +7814,26 @@
         <v>2007</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -7845,26 +7860,26 @@
         <v>2008</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J9" s="23">
         <v>1</v>
@@ -7891,26 +7906,26 @@
         <v>2009</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -7937,26 +7952,26 @@
         <v>2010</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -7983,26 +7998,26 @@
         <v>2011</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -8029,26 +8044,26 @@
         <v>2012</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -8075,26 +8090,26 @@
         <v>2013</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -8121,26 +8136,26 @@
         <v>2014</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -8167,26 +8182,26 @@
         <v>2015</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -8213,26 +8228,26 @@
         <v>2016</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -8259,26 +8274,26 @@
         <v>2017</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -8305,26 +8320,26 @@
         <v>2018</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -8351,26 +8366,26 @@
         <v>2019</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -8397,26 +8412,26 @@
         <v>2020</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>456</v>
-      </c>
       <c r="I21" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -8443,26 +8458,26 @@
         <v>2021</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -8489,26 +8504,26 @@
         <v>2022</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -8535,26 +8550,26 @@
         <v>2023</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -8634,9 +8649,9 @@
       <c r="X43" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:I2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:N1"/>
@@ -8821,89 +8836,88 @@
       <pane xSplit="16" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="24.54296875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.81640625" style="3" customWidth="1"/>
-    <col min="6" max="10" width="12.453125" style="3" customWidth="1"/>
-    <col min="11" max="15" width="3.81640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="3" customWidth="1"/>
+    <col min="6" max="10" width="12.6328125" style="3" customWidth="1"/>
+    <col min="11" max="15" width="3.6328125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>572</v>
-      </c>
       <c r="F2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="P2" s="2"/>
     </row>
@@ -8912,29 +8926,29 @@
         <v>2002</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K3" s="23">
         <v>1</v>
@@ -8962,19 +8976,19 @@
         <v>2002</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>432</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>434</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -9011,29 +9025,29 @@
         <v>2003</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -9061,29 +9075,29 @@
         <v>2004</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>0</v>
@@ -9110,29 +9124,29 @@
         <v>2005</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>0</v>
@@ -9159,29 +9173,29 @@
         <v>2006</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>0</v>
@@ -9208,29 +9222,29 @@
         <v>2007</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>0</v>
@@ -9257,29 +9271,29 @@
         <v>2008</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>0</v>
@@ -9306,29 +9320,29 @@
         <v>2009</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>0</v>
@@ -9355,29 +9369,29 @@
         <v>2010</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>0</v>
@@ -9404,29 +9418,29 @@
         <v>2011</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>0</v>
@@ -9453,29 +9467,29 @@
         <v>2012</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>0</v>
@@ -9502,29 +9516,29 @@
         <v>2013</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>0</v>
@@ -9551,29 +9565,29 @@
         <v>2014</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>0</v>
@@ -9600,29 +9614,29 @@
         <v>2015</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>0</v>
@@ -9649,29 +9663,29 @@
         <v>2016</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>0</v>
@@ -9698,29 +9712,29 @@
         <v>2017</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
@@ -9747,29 +9761,29 @@
         <v>2018</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
@@ -9796,29 +9810,29 @@
         <v>2019</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -9845,29 +9859,29 @@
         <v>2020</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="I22" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>460</v>
-      </c>
       <c r="J22" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
@@ -9894,29 +9908,29 @@
         <v>2021</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -9943,29 +9957,29 @@
         <v>2022</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -9992,29 +10006,29 @@
         <v>2023</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
@@ -10045,9 +10059,9 @@
       <c r="X26" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:J2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="K1:O1"/>
@@ -10232,85 +10246,84 @@
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="9" width="12.453125" style="3" customWidth="1"/>
-    <col min="10" max="14" width="3.81640625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="3" customWidth="1"/>
+    <col min="5" max="9" width="12.6328125" style="3" customWidth="1"/>
+    <col min="10" max="14" width="3.6328125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>573</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>570</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>571</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>574</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="J2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -10319,28 +10332,28 @@
         <v>2002</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J3" s="23">
         <v>1</v>
@@ -10368,28 +10381,28 @@
         <v>2003</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J4" s="23">
         <v>0</v>
@@ -10417,28 +10430,28 @@
         <v>2004</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J5" s="23" t="s">
         <v>0</v>
@@ -10465,28 +10478,28 @@
         <v>2005</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J6" s="23">
         <v>0</v>
@@ -10513,28 +10526,28 @@
         <v>2006</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J7" s="23">
         <v>0</v>
@@ -10561,28 +10574,28 @@
         <v>2007</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J8" s="23">
         <v>0</v>
@@ -10609,13 +10622,13 @@
         <v>2007</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>0</v>
@@ -10624,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>0</v>
@@ -10654,28 +10667,28 @@
         <v>2008</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J10" s="23">
         <v>0</v>
@@ -10702,28 +10715,28 @@
         <v>2009</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J11" s="23">
         <v>0</v>
@@ -10750,28 +10763,28 @@
         <v>2010</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J12" s="23">
         <v>0</v>
@@ -10798,28 +10811,28 @@
         <v>2011</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J13" s="23">
         <v>0</v>
@@ -10846,28 +10859,28 @@
         <v>2012</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J14" s="23">
         <v>0</v>
@@ -10894,28 +10907,28 @@
         <v>2013</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J15" s="23">
         <v>0</v>
@@ -10942,28 +10955,28 @@
         <v>2014</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J16" s="23">
         <v>0</v>
@@ -10990,28 +11003,28 @@
         <v>2015</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J17" s="23">
         <v>0</v>
@@ -11038,28 +11051,28 @@
         <v>2016</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J18" s="23">
         <v>0</v>
@@ -11086,28 +11099,28 @@
         <v>2017</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J19" s="23">
         <v>0</v>
@@ -11134,28 +11147,28 @@
         <v>2018</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J20" s="23">
         <v>0</v>
@@ -11182,28 +11195,28 @@
         <v>2019</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J21" s="23">
         <v>0</v>
@@ -11230,28 +11243,28 @@
         <v>2020</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E22" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>464</v>
-      </c>
       <c r="I22" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -11278,28 +11291,28 @@
         <v>2021</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -11326,28 +11339,28 @@
         <v>2022</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -11376,28 +11389,28 @@
         <v>2023</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
@@ -11496,9 +11509,9 @@
       <c r="Y42" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:I2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:N1"/>
@@ -11713,85 +11726,84 @@
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="9" width="12.453125" style="3" customWidth="1"/>
-    <col min="10" max="14" width="3.81640625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="3" customWidth="1"/>
+    <col min="5" max="9" width="12.6328125" style="3" customWidth="1"/>
+    <col min="10" max="14" width="3.6328125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>573</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>570</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>571</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>574</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="J2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -11800,28 +11812,28 @@
         <v>2002</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>374</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>376</v>
       </c>
       <c r="J3" s="23">
         <v>1</v>
@@ -11849,28 +11861,28 @@
         <v>2003</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>0</v>
@@ -11898,28 +11910,28 @@
         <v>2004</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>375</v>
-      </c>
       <c r="I5" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -11946,28 +11958,28 @@
         <v>2005</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>0</v>
@@ -11994,28 +12006,28 @@
         <v>2006</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>0</v>
@@ -12042,28 +12054,28 @@
         <v>2007</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>0</v>
@@ -12090,28 +12102,28 @@
         <v>2008</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>0</v>
@@ -12138,28 +12150,28 @@
         <v>2009</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>0</v>
@@ -12186,28 +12198,28 @@
         <v>2010</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>0</v>
@@ -12234,28 +12246,28 @@
         <v>2011</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>0</v>
@@ -12282,28 +12294,28 @@
         <v>2012</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>0</v>
@@ -12330,28 +12342,28 @@
         <v>2013</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>0</v>
@@ -12378,28 +12390,28 @@
         <v>2014</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>0</v>
@@ -12426,28 +12438,28 @@
         <v>2015</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>0</v>
@@ -12474,28 +12486,28 @@
         <v>2016</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>0</v>
@@ -12522,28 +12534,28 @@
         <v>2017</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>0</v>
@@ -12570,28 +12582,28 @@
         <v>2018</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>0</v>
@@ -12618,28 +12630,28 @@
         <v>2019</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>0</v>
@@ -12666,28 +12678,28 @@
         <v>2020</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>0</v>
@@ -12714,28 +12726,28 @@
         <v>2021</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>0</v>
@@ -12762,28 +12774,28 @@
         <v>2022</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -12810,28 +12822,28 @@
         <v>2023</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -12911,9 +12923,9 @@
       <c r="AA44" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:I2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:N1"/>
@@ -13143,89 +13155,88 @@
       <pane xSplit="16" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="24.54296875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.81640625" style="3" customWidth="1"/>
-    <col min="6" max="10" width="12.453125" style="3" customWidth="1"/>
-    <col min="11" max="15" width="3.81640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="3" customWidth="1"/>
+    <col min="6" max="10" width="12.6328125" style="3" customWidth="1"/>
+    <col min="11" max="15" width="3.6328125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>572</v>
-      </c>
       <c r="F2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="P2" s="2"/>
     </row>
@@ -13234,29 +13245,29 @@
         <v>2002</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>385</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>387</v>
       </c>
       <c r="K3" s="23">
         <v>3</v>
@@ -13283,25 +13294,25 @@
         <v>2002</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>432</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>434</v>
       </c>
       <c r="I4" s="19" t="s">
         <v>0</v>
@@ -13334,29 +13345,29 @@
         <v>2003</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -13383,29 +13394,29 @@
         <v>2004</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>386</v>
-      </c>
       <c r="J6" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -13432,29 +13443,29 @@
         <v>2005</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>0</v>
@@ -13481,29 +13492,29 @@
         <v>2006</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>0</v>
@@ -13530,29 +13541,29 @@
         <v>2007</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>0</v>
@@ -13579,29 +13590,29 @@
         <v>2008</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>0</v>
@@ -13628,29 +13639,29 @@
         <v>2009</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>0</v>
@@ -13677,29 +13688,29 @@
         <v>2010</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>0</v>
@@ -13726,29 +13737,29 @@
         <v>2011</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>0</v>
@@ -13775,29 +13786,29 @@
         <v>2012</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>0</v>
@@ -13824,29 +13835,29 @@
         <v>2013</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>0</v>
@@ -13873,29 +13884,29 @@
         <v>2014</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>0</v>
@@ -13922,29 +13933,29 @@
         <v>2015</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>0</v>
@@ -13971,29 +13982,29 @@
         <v>2016</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>0</v>
@@ -14020,29 +14031,29 @@
         <v>2017</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="18" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>0</v>
@@ -14069,29 +14080,29 @@
         <v>2018</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>0</v>
@@ -14118,29 +14129,29 @@
         <v>2019</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="18" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>0</v>
@@ -14167,29 +14178,29 @@
         <v>2020</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="18" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>0</v>
@@ -14216,29 +14227,29 @@
         <v>2021</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="18" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>0</v>
@@ -14265,29 +14276,29 @@
         <v>2022</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>0</v>
@@ -14314,29 +14325,29 @@
         <v>2023</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="18" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>0</v>
@@ -14414,9 +14425,9 @@
       <c r="AB43" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:J2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="K1:O1"/>
@@ -14705,85 +14716,84 @@
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
-    <col min="5" max="9" width="12.453125" style="3" customWidth="1"/>
-    <col min="10" max="14" width="3.81640625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="3" customWidth="1"/>
+    <col min="5" max="9" width="12.6328125" style="3" customWidth="1"/>
+    <col min="10" max="14" width="3.6328125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>573</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>570</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>571</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>574</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="J2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -14792,28 +14802,28 @@
         <v>2002</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -14840,28 +14850,28 @@
         <v>2003</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -14888,28 +14898,28 @@
         <v>2004</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -14936,28 +14946,28 @@
         <v>2005</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>0</v>
@@ -14984,28 +14994,28 @@
         <v>2006</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>0</v>
@@ -15080,28 +15090,28 @@
         <v>2008</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -15176,28 +15186,28 @@
         <v>2010</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -15224,28 +15234,28 @@
         <v>2011</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -15368,28 +15378,28 @@
         <v>2014</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -15464,28 +15474,28 @@
         <v>2016</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -15512,28 +15522,28 @@
         <v>2017</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -15608,28 +15618,28 @@
         <v>2019</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -15656,28 +15666,28 @@
         <v>2020</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E21" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>468</v>
-      </c>
       <c r="I21" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -15704,28 +15714,28 @@
         <v>2021</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -15752,28 +15762,28 @@
         <v>2022</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>0</v>
@@ -15801,28 +15811,28 @@
         <v>2023</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -15965,9 +15975,9 @@
       <c r="AD46" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:I2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:N1"/>
@@ -16288,7 +16298,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11 M9">
+  <conditionalFormatting sqref="M9 M11">
     <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M9))))</formula>
     </cfRule>
@@ -16689,13 +16699,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16703,10 +16713,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16714,10 +16724,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16725,10 +16735,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16736,10 +16746,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16747,10 +16757,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16758,10 +16768,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>435</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>437</v>
       </c>
     </row>
   </sheetData>
